--- a/template/lp.xlsx
+++ b/template/lp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6755854-8586-4749-89C9-0B5A8E36D288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18631D67-26D7-4641-8234-14E187E0A992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="14180" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -301,6 +301,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,12 +321,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,13 +640,12 @@
   <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -690,305 +689,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
     </row>
     <row r="2" spans="1:60" ht="16" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="6" t="s">
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:60">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9" t="s">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9" t="s">
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AW3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AX3" s="9" t="s">
+      <c r="AX3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AY3" s="9" t="s">
+      <c r="AY3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" s="9" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="9" t="s">
+      <c r="BA3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BB3" s="9" t="s">
+      <c r="BB3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BC3" s="9" t="s">
+      <c r="BC3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9" t="s">
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BH3" s="7"/>
+      <c r="BH3" s="9"/>
     </row>
     <row r="4" spans="1:60">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1013,16 +1012,16 @@
       <c r="W4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
       <c r="AH4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1047,19 +1046,19 @@
       <c r="AO4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
       <c r="BC4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1072,44 +1071,11 @@
       <c r="BF4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="8"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="A1:BH1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="X2:AO2"/>
@@ -1126,6 +1092,39 @@
     <mergeCell ref="AW3:AW4"/>
     <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/lp.xlsx
+++ b/template/lp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoting/Desktop/code/python/election-s-prediction/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18631D67-26D7-4641-8234-14E187E0A992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EBB87-A824-4EB0-B8B2-CFDF5EF8EED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="14180" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>性别</t>
   </si>
@@ -141,23 +133,63 @@
     <t>地址</t>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配偶信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配偶信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子女信息</t>
+    <t>父亲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治倾向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加社团</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +242,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,37 +285,37 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -295,11 +334,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,19 +349,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,127 +676,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:BH4"/>
+  <dimension ref="A1:BS4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="45" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="10.83203125" style="1"/>
+    <col min="60" max="62" width="10.875" style="1"/>
+    <col min="63" max="63" width="15.125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="15.5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="22.25" style="1" customWidth="1"/>
+    <col min="66" max="66" width="21" style="1" customWidth="1"/>
+    <col min="67" max="67" width="18.875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="20.25" style="1" customWidth="1"/>
+    <col min="69" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="26">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:71" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="10"/>
     </row>
-    <row r="2" spans="1:60" ht="16" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -780,12 +839,14 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="Z2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
@@ -800,12 +861,12 @@
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
-      <c r="AP2" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
       <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
+      <c r="AS2" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AT2" s="7"/>
       <c r="AU2" s="7"/>
       <c r="AV2" s="7"/>
@@ -820,303 +881,365 @@
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
-      <c r="BH2" s="8" t="s">
-        <v>35</v>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AB3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AC3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AI3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AK3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AT3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AU3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AV3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AW3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AX3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AY3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AZ3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="BA3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="BB3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BC3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BD3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BE3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BF3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="BH3" s="9"/>
+      <c r="BK3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
     </row>
-    <row r="4" spans="1:60">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="2" t="s">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="2" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AL4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AM4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AN4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AO4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AP4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AR4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="3" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BG4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BH4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BI4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="10"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A1:BH1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="X2:AO2"/>
-    <mergeCell ref="AP2:BG2"/>
+  <mergeCells count="55">
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="A1:BS1"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
     <mergeCell ref="AZ3:AZ4"/>
     <mergeCell ref="BA3:BA4"/>
     <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BF3"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="AV3:AV4"/>
     <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AA2:AR2"/>
+    <mergeCell ref="AS2:BJ2"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AR3"/>
     <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="BO3:BR3"/>
+    <mergeCell ref="BK2:BR2"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
@@ -1125,8 +1248,12 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/lp.xlsx
+++ b/template/lp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EBB87-A824-4EB0-B8B2-CFDF5EF8EED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4F9901-9953-449B-BF4C-253218573A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0881E1A8-F3CD-5E46-9B58-2D8F79A3123D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>性别</t>
   </si>
@@ -73,87 +73,166 @@
     <t>户籍所在地址</t>
   </si>
   <si>
+    <t>大陆</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>出生年月</t>
+  </si>
+  <si>
+    <t>党派/团体</t>
+  </si>
+  <si>
+    <t>毕业院校</t>
+  </si>
+  <si>
+    <t>出生地</t>
+  </si>
+  <si>
+    <t>学历学位</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>入党/团时间</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>工作单位/就读学校</t>
+  </si>
+  <si>
+    <t>个人特长</t>
+  </si>
+  <si>
+    <t>工作单位</t>
+  </si>
+  <si>
+    <t>工作单位地址</t>
+  </si>
+  <si>
+    <t>居住地址</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配偶信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子女信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父亲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加社团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>所在社区/镇村</t>
-  </si>
-  <si>
-    <t>大陆</t>
-  </si>
-  <si>
-    <t>台湾</t>
-  </si>
-  <si>
-    <t>籍贯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍所在地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆住所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾住所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾工作+AAQ3:BE4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出生年月</t>
-  </si>
-  <si>
-    <t>党派/团体</t>
-  </si>
-  <si>
-    <t>毕业院校</t>
-  </si>
-  <si>
-    <t>出生地</t>
-  </si>
-  <si>
-    <t>学历学位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
-  </si>
-  <si>
-    <t>入党/团时间</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>工作单位/就读学校</t>
-  </si>
-  <si>
-    <t>个人特长</t>
-  </si>
-  <si>
-    <t>工作单位</t>
-  </si>
-  <si>
-    <t>工作单位地址</t>
-  </si>
-  <si>
-    <t>居住地址</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>从事专业</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配偶信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子女信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父亲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭其他成员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,27 +240,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位职务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治倾向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>母亲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾向</t>
+    <t>单位职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治面貌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -189,7 +252,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参加社团</t>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与陆配关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -313,6 +384,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -327,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +440,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,13 +458,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E2FCD3-2382-D348-B011-EC8A147381B8}">
-  <dimension ref="A1:BS4"/>
+  <dimension ref="A1:CA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BS9" sqref="BS9"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BU5" sqref="BU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,7 +803,7 @@
     <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="13.25" style="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.125" style="1" bestFit="1" customWidth="1"/>
@@ -709,11 +812,14 @@
     <col min="31" max="34" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.75" style="1" customWidth="1"/>
     <col min="39" max="39" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="45" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.25" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9.625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -721,9 +827,9 @@
     <col min="51" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.25" style="1" customWidth="1"/>
+    <col min="57" max="57" width="14" style="1" customWidth="1"/>
     <col min="58" max="58" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="62" width="10.875" style="1"/>
@@ -733,472 +839,527 @@
     <col min="66" max="66" width="21" style="1" customWidth="1"/>
     <col min="67" max="67" width="18.875" style="1" customWidth="1"/>
     <col min="68" max="68" width="20.25" style="1" customWidth="1"/>
-    <col min="69" max="16384" width="10.875" style="1"/>
+    <col min="69" max="69" width="16.875" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:79" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="7"/>
     </row>
-    <row r="2" spans="1:71" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:79" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="5" t="s">
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7" t="s">
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BU3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA3" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="BL4" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BP4" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="BQ4" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS4" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="A1:BS1"/>
+  <mergeCells count="67">
+    <mergeCell ref="BU3:BU4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="BC3:BC4"/>
     <mergeCell ref="BD3:BD4"/>
@@ -1212,22 +1373,12 @@
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="AV3:AV4"/>
     <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AA2:AR2"/>
-    <mergeCell ref="AS2:BJ2"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="BJ3:BJ4"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="BS3:BS4"/>
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
@@ -1236,21 +1387,45 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="T3:W3"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="BK3:BN3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AA2:AR2"/>
+    <mergeCell ref="AS2:BJ2"/>
     <mergeCell ref="BO3:BR3"/>
     <mergeCell ref="BK2:BR2"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="BJ3:BJ4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="A1:CA1"/>
+    <mergeCell ref="BZ3:BZ4"/>
+    <mergeCell ref="CA3:CA4"/>
+    <mergeCell ref="BX3:BX4"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="BV3:BV4"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="BY3:BY4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="BK3:BN3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
